--- a/swings/2021-11-22/GATEIO_SPOT_ACH_USDT.xlsx
+++ b/swings/2021-11-22/GATEIO_SPOT_ACH_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>0.07730300000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,6 +666,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +721,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O5" t="n">
+        <v>0.079099</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -765,6 +778,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>0.07863400000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -819,6 +835,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O7" t="n">
+        <v>0.07889</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -871,6 +890,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -923,6 +943,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -975,6 +996,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1029,6 +1051,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>0.07627700000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1081,6 +1106,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1133,6 +1159,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1187,6 +1214,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>0.07708200000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1239,6 +1269,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1293,6 +1324,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>0.07567</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1345,6 +1379,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1397,6 +1432,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1451,6 +1487,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>0.078361</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1503,6 +1542,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1555,6 +1595,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1609,6 +1650,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O22" t="n">
+        <v>0.074696</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1663,6 +1707,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>0.076269</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1715,6 +1762,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1769,6 +1817,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O25" t="n">
+        <v>0.07400000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1823,6 +1874,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>0.075627</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1875,6 +1929,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1927,6 +1982,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1981,6 +2037,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O29" t="n">
+        <v>0.0738</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2033,6 +2092,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2085,6 +2145,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2137,6 +2198,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2189,6 +2251,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2241,6 +2304,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2293,6 +2357,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2345,6 +2410,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2397,6 +2463,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2451,6 +2518,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>0.07729000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2503,6 +2573,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2557,6 +2628,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O40" t="n">
+        <v>0.076292</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2609,6 +2683,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2661,6 +2736,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2713,6 +2789,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2767,6 +2844,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>0.078421</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2821,6 +2901,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>0.07762300000000001</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2873,6 +2956,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2925,6 +3009,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2977,6 +3062,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3031,6 +3117,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O49" t="n">
+        <v>0.07859100000000001</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3085,6 +3174,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>0.075881</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3139,6 +3231,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O51" t="n">
+        <v>0.076461</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3193,6 +3288,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>0.07498300000000001</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3247,6 +3345,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>0.07606400000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3299,6 +3400,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3351,6 +3453,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3405,6 +3508,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O56" t="n">
+        <v>0.07502200000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3459,6 +3565,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>0.075784</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3511,6 +3620,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3565,6 +3675,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O59" t="n">
+        <v>0.07475900000000001</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3617,6 +3730,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3671,6 +3785,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O61" t="n">
+        <v>0.076099</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3723,6 +3840,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3777,6 +3895,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>0.07530000000000001</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3829,6 +3950,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3881,6 +4003,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3935,6 +4058,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O66" t="n">
+        <v>0.07722900000000001</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3989,6 +4115,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>0.07550900000000001</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4041,6 +4170,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4093,6 +4223,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4147,6 +4278,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>0.07713300000000001</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4199,6 +4333,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4251,6 +4386,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4303,6 +4439,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4357,6 +4494,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O74" t="n">
+        <v>0.075307</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4409,6 +4549,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4461,6 +4602,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4513,6 +4655,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4567,6 +4710,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O78" t="n">
+        <v>0.07741000000000001</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4619,6 +4765,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4671,6 +4818,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4723,6 +4871,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4775,6 +4924,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4829,6 +4979,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O83" t="n">
+        <v>0.0751</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4883,6 +5036,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>0.077666</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4937,6 +5093,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>0.07650900000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4989,6 +5148,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5043,6 +5203,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O87" t="n">
+        <v>0.078421</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5097,6 +5260,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>0.077361</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5149,6 +5315,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5203,6 +5370,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O90" t="n">
+        <v>0.08082800000000001</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5257,6 +5427,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O91" t="n">
+        <v>0.07878800000000001</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5309,6 +5482,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5361,6 +5535,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5415,6 +5590,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>0.08280800000000001</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5469,6 +5647,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>0.079818</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5523,6 +5704,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O96" t="n">
+        <v>0.081305</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5577,6 +5761,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O97" t="n">
+        <v>0.08086600000000001</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5629,6 +5816,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5683,6 +5871,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>0.082203</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5735,6 +5926,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5787,6 +5979,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5841,6 +6034,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O102" t="n">
+        <v>0.08015700000000001</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5895,6 +6091,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O103" t="n">
+        <v>0.081415</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5947,6 +6146,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5999,6 +6199,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6051,6 +6252,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6103,6 +6305,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6157,6 +6360,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>0.078599</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6211,6 +6417,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>0.07980100000000001</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6265,6 +6474,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>0.07843600000000001</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6317,6 +6529,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6371,6 +6584,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O112" t="n">
+        <v>0.079473</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6425,6 +6641,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O113" t="n">
+        <v>0.07864900000000001</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6477,6 +6696,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6529,6 +6749,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6583,6 +6804,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>0.08030100000000001</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6635,6 +6859,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6687,6 +6912,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6739,6 +6965,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6793,6 +7020,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>0.07755000000000001</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6845,6 +7075,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6899,6 +7130,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>0.07833900000000001</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6953,6 +7187,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>0.07763500000000001</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7005,6 +7242,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7057,6 +7295,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7109,6 +7348,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7163,6 +7403,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O127" t="n">
+        <v>0.07871</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7215,6 +7458,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7267,6 +7511,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7321,6 +7566,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O130" t="n">
+        <v>0.07680200000000001</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7375,6 +7623,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>0.077876</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7427,6 +7678,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7481,6 +7733,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O133" t="n">
+        <v>0.07696900000000001</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7533,6 +7788,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7587,6 +7843,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O135" t="n">
+        <v>0.07829</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7641,6 +7900,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>0.077599</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7693,6 +7955,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7747,6 +8010,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O138" t="n">
+        <v>0.078305</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7799,6 +8065,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7853,6 +8120,9 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O140" t="n">
+        <v>0.077281</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7905,6 +8175,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7957,6 +8228,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8009,6 +8281,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8061,6 +8334,7 @@
           <t>ACHUSD</t>
         </is>
       </c>
+      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8114,6 +8388,9 @@
         <is>
           <t>ACHUSD</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>0.08205000000000001</v>
       </c>
     </row>
   </sheetData>
